--- a/Método de identificación/UNIÓN DE CARACTERISTICAS/DM_3.xlsx
+++ b/Método de identificación/UNIÓN DE CARACTERISTICAS/DM_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20809,7 +20809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -31084,7 +31084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
